--- a/stuup_api/src/main/resources/template/political.xlsx
+++ b/stuup_api/src/main/resources/template/political.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ideProject\poho\stuup_admin\stuup_api\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7669322B-B84C-4671-B0A2-23912E30F15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A59E91A-D5EF-49D5-9997-B1B2920BE053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3612" yWindow="3996" windowWidth="21228" windowHeight="7476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="党团活动信息导入模板" sheetId="1" r:id="rId1"/>
@@ -25,66 +25,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>姓名</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>学籍号</t>
     <rPh sb="0" eb="1">
       <t>ban'ji'ming'c</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>党团活动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
     <rPh sb="0" eb="1">
       <t>ban zhu rengong hao</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
     <rPh sb="0" eb="1">
       <t>xi'bu</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>文化程度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在部门</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>级别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织机构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,17 +133,15 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -437,55 +424,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D8" s="4"/>
       <c r="F8" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{C791EAAC-67FE-4DF4-91E3-22B93C5CA045}">
+      <formula1>"一级,二级,三级"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
